--- a/original_files/OMORO PWDs.xlsx
+++ b/original_files/OMORO PWDs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="110">
   <si>
     <t>S/N</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">OMORO TOWN COUNCIL WARD </t>
-  </si>
-  <si>
     <t>OPIT CENTRAL WARD</t>
   </si>
   <si>
@@ -345,13 +342,25 @@
   </si>
   <si>
     <t>Ward/Parish</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMORO TOWN COUNCIL </t>
+  </si>
+  <si>
+    <t>OMORO TOWN COUNCIL WARD DISABILITY UNION</t>
+  </si>
+  <si>
+    <t>AKIDI SUB COUNTY PARISH UNION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +380,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -433,17 +450,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -451,6 +468,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +765,11 @@
     <col min="5" max="5" width="23.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="22" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="54.7109375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,1673 +789,1895 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>779140469</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="5">
         <v>783768081</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="5">
         <v>789088779</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H9" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E11" s="5">
         <v>787423534</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>784653088</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5">
         <v>786016304</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="5">
         <v>788540753</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5">
         <v>777298639</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
         <v>776248805</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5">
         <v>784653088</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="5">
         <v>777298639</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E20" s="5">
         <v>7855464694</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="5">
         <v>789294276</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="5">
         <v>776115948</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E23" s="5">
         <v>761540013</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="5">
         <v>772802799</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5">
         <v>761951266</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="5">
         <v>788602799</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E29" s="5">
         <v>788807660</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E30" s="5">
         <v>784927065</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E34" s="5">
         <v>789109866</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="5">
         <v>760444828</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="5">
         <v>788720228</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="5">
         <v>774729884</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E38" s="5">
         <v>783113708</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H38" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H39" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5">
         <v>780900577</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H40" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H41" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="5">
         <v>773467982</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
         <v>779757849</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="5">
         <v>775526066</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="5">
         <v>775883964</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H45" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="5">
         <v>772789224</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H46" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5">
         <v>783759080</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E48" s="5">
         <v>760936357</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="5">
         <v>780151947</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5">
         <v>775450562</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="5">
         <v>770845430</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="5">
         <v>785904177</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="5">
         <v>782070063</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5">
         <v>781750123</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="5">
         <v>775291279</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E57" s="5">
         <v>783151888</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5">
         <v>789942389</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" s="5">
         <v>789295388</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="5">
         <v>762755354</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="5">
         <v>781956263</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="5">
         <v>782931266</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" s="5">
         <v>781926263</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E65" s="5">
         <v>775314599</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E66" s="5">
         <v>762333882</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" s="5">
         <v>785454412</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E70" s="5">
         <v>771684820</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" s="5">
         <v>788162990</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E72" s="5">
         <v>789810175</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E73" s="5">
         <v>773678730</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" s="5">
         <v>788162990</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="F80" s="3"/>
     </row>
